--- a/opr2/Лабораторная работа 13 (2).xlsx
+++ b/opr2/Лабораторная работа 13 (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artsiom_Kharkevich\Study\study\opr2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723C5512-3BEF-4D57-9C7A-C2ECE1180D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBD3131-4E54-4054-A135-69CAD727BC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -638,15 +638,15 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="33">
         <v>11</v>
       </c>
@@ -680,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="33">
         <v>6</v>
       </c>
@@ -697,7 +697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="33">
         <v>12</v>
       </c>
@@ -714,7 +714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="33">
         <v>10</v>
       </c>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -740,7 +740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -749,7 +749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -767,7 +767,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -776,7 +776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -785,7 +785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -794,7 +794,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -803,7 +803,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -812,7 +812,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -821,7 +821,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -830,7 +830,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -839,17 +839,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17">
-        <f>D1+B4+C2+E3+A5</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31">
+        <f>D1+B4+C2+E3+A5+A3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -858,7 +858,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -867,7 +867,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -876,7 +876,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
@@ -886,7 +886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -895,7 +895,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -904,7 +904,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -913,7 +913,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -922,7 +922,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -931,7 +931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>8</v>
       </c>
@@ -941,7 +941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -960,21 +960,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="12" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="12" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>11</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>6</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>12</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>10</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="T6" s="10">
         <f>MIN(T1:T5)</f>
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -1412,7 +1412,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31"/>
       <c r="I9" s="18">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f>T1</f>
         <v>М</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f>T2-$T$6</f>
         <v>4</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f>T3-$T$6</f>
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <f>T4-$T$6</f>
         <v>3</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <f>T5-$T$6</f>
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W15">
         <f>MIN(W10:W14)</f>
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="18">
         <v>1</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>SUM(W15:AA15)+SUM(AB10:AB14)</f>
         <v>2</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18">
         <v>4</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>37</v>
       </c>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>G14+A19</f>
         <v>44</v>
@@ -2328,7 +2328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="18">
         <v>2</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B25" s="18">
         <v>2</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B26" s="18">
         <v>4</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18">
         <v>5</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="C28">
         <f>MIN(C25:C27)</f>
@@ -2484,7 +2484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="19">
         <v>2</v>
       </c>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="18">
         <v>4</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="N31" s="31"/>
       <c r="O31" s="31"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="18">
         <v>5</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="O32" s="31"/>
       <c r="Q32" s="31"/>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C33">
         <f>MIN(C31:C32)</f>
         <v>0</v>
@@ -2572,7 +2572,7 @@
       <c r="O33" s="31"/>
       <c r="Q33" s="31"/>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.3">
       <c r="F34" s="31"/>
       <c r="G34">
         <f>G31+U22</f>
@@ -2584,7 +2584,7 @@
       <c r="O34" s="31"/>
       <c r="Q34" s="31"/>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.3">
       <c r="F35" s="32"/>
       <c r="G35" s="31"/>
       <c r="L35" s="31"/>
@@ -2593,9 +2593,8 @@
       <c r="O35" s="31"/>
       <c r="Q35" s="31"/>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.3">
       <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="31"/>
